--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1647677.1072089</v>
+        <v>1682995.862534668</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914462</v>
+        <v>426806.9758914459</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478711</v>
+        <v>8362709.488478709</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8107454.500703262</v>
+        <v>8107454.500703263</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>178.1573130319831</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,31 +703,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>230.6992324161051</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -758,7 +758,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>25.17354161800006</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>241.0142888776591</v>
@@ -1025,22 +1025,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>169.9088723636407</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>188.9257796665961</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>33.60023339142369</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>40.58013988212365</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>165.8360787509727</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>89.91747019698302</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>135.3175490308132</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3677099213027</v>
+        <v>38.97663790996543</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13.08993799274015</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>47.23959131629373</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.2238804167309</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.765684283447523</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1694,7 +1694,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>87.44343815779774</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>47.23959131629378</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>213.7566149411064</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>58.02162271773325</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>158.3007669945651</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597632</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>17.79417311172709</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552442</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>149.3102327444246</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>73.66757925108482</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>124.4544989107806</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>68.00740242650593</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>99.13697621284958</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>74.40951513808766</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>56.02127570389438</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>80.79258128802688</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>108.0529342638476</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>26.73110927253577</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>26.73110927253575</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>65.90747854024177</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>197.3677099213027</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>73.66757925108482</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>126.7984012085845</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -2611,10 +2611,10 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>135.2430879095636</v>
       </c>
       <c r="V26" t="n">
-        <v>162.7925717743383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>47.47529300550318</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>74.15307578127785</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>117.2612575404876</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>233.2218629315013</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>43.76331341951682</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>131.9680216153334</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>68.53353193096707</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>233.6538267990215</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>139.7083051618796</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3119,13 +3119,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>83.29896986725154</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>132.1304135414939</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>142.5581954067068</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>228.0595982572182</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,10 +3283,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>171.5481470906109</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3353,16 +3353,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>38.78966489179808</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -3398,7 +3398,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
-        <v>175.6262265852954</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
         <v>225.8957288909827</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>161.6577616909981</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>260.6472047718441</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>56.38408204244286</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>150.8852556187607</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3587,22 +3587,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>28.58965000103594</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>13.08993799274016</v>
+        <v>2.043912181355606</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>317.9222501179198</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>124.0049387755136</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3875,7 +3875,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8957288909827</v>
+        <v>164.1254863648505</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>154.1918883063999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>153.1789736827622</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>26.73110927253554</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>43.38858757379008</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>0.4026817847173583</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>199.9063665998298</v>
       </c>
       <c r="V46" t="n">
-        <v>154.1918883064001</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>499.3853800778592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>266.3558523848238</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>266.3558523848238</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>266.3558523848238</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>266.3558523848238</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4418,43 +4418,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4509,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.23626279480629</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>72.23626279480629</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
         <v>72.23626279480629</v>
@@ -4600,19 +4600,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="V5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="W5" t="n">
         <v>559.1338160830064</v>
       </c>
-      <c r="V5" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="W5" t="n">
-        <v>72.23626279480629</v>
-      </c>
       <c r="X5" t="n">
-        <v>72.23626279480629</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.23626279480629</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4658,10 +4658,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4673,19 +4673,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>691.2625024638849</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>691.2625024638849</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>463.038884200274</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>227.8867759685313</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W6" t="n">
-        <v>227.8867759685313</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X6" t="n">
         <v>20.03527576299844</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>308.7395386897029</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>588.0815197256143</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>413.6284904444873</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>264.694080783236</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
         <v>223.7040404982626</v>
@@ -4892,7 +4892,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>467.1528171423627</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2968567456824</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1951.534578397632</v>
+        <v>1327.084749330048</v>
       </c>
       <c r="C11" t="n">
-        <v>1951.534578397632</v>
+        <v>1327.084749330048</v>
       </c>
       <c r="D11" t="n">
-        <v>1593.268879790881</v>
+        <v>968.8190507232971</v>
       </c>
       <c r="E11" t="n">
-        <v>1207.480627192637</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F11" t="n">
-        <v>796.4947224030295</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5041,19 +5041,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N11" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O11" t="n">
         <v>2037.925350935285</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2304.303233667746</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2304.303233667746</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V11" t="n">
-        <v>2304.303233667746</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W11" t="n">
-        <v>1951.534578397632</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="X11" t="n">
-        <v>1951.534578397632</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="Y11" t="n">
-        <v>1951.534578397632</v>
+        <v>1327.084749330048</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>882.175553373567</v>
       </c>
       <c r="C12" t="n">
-        <v>547.7315422628061</v>
+        <v>707.72252409244</v>
       </c>
       <c r="D12" t="n">
-        <v>398.7971326015548</v>
+        <v>558.7881144311888</v>
       </c>
       <c r="E12" t="n">
-        <v>239.5596775960993</v>
+        <v>399.5506594257333</v>
       </c>
       <c r="F12" t="n">
-        <v>93.02511962298431</v>
+        <v>253.0161014526182</v>
       </c>
       <c r="G12" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>2158.207869599012</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5150,22 +5150,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.569658254351</v>
       </c>
       <c r="U12" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.392154324066</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.240046092323</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.002689364122</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.151189158589</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.390890393635</v>
       </c>
     </row>
     <row r="13">
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
         <v>48.81975253256327</v>
@@ -5229,22 +5229,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T13" t="n">
-        <v>640.638169680758</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="U13" t="n">
-        <v>351.4590821581503</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V13" t="n">
-        <v>351.4590821581503</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W13" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.04191212118968</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>807.3742435696511</v>
+        <v>451.066096387847</v>
       </c>
       <c r="C14" t="n">
-        <v>438.4117266292394</v>
+        <v>451.066096387847</v>
       </c>
       <c r="D14" t="n">
-        <v>438.4117266292394</v>
+        <v>451.066096387847</v>
       </c>
       <c r="E14" t="n">
-        <v>52.62347403099511</v>
+        <v>451.066096387847</v>
       </c>
       <c r="F14" t="n">
-        <v>52.62347403099511</v>
+        <v>451.066096387847</v>
       </c>
       <c r="G14" t="n">
-        <v>52.62347403099511</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62347403099511</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5317,13 +5317,13 @@
         <v>1567.439841894853</v>
       </c>
       <c r="W14" t="n">
-        <v>1567.439841894853</v>
+        <v>1214.671186624739</v>
       </c>
       <c r="X14" t="n">
-        <v>1193.974083633773</v>
+        <v>841.2054283636587</v>
       </c>
       <c r="Y14" t="n">
-        <v>1193.974083633773</v>
+        <v>451.066096387847</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>779.8344674874215</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>605.3814382062945</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>456.4470285450433</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>368.1203233351466</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>221.5857653620315</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
@@ -5369,40 +5369,40 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599012</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.53651143791052</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C16" t="n">
-        <v>96.53651143791052</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D16" t="n">
-        <v>96.53651143791052</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E16" t="n">
         <v>48.81975253256327</v>
@@ -5472,16 +5472,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="V16" t="n">
-        <v>385.9536814748711</v>
+        <v>424.7223970129737</v>
       </c>
       <c r="W16" t="n">
-        <v>96.53651143791052</v>
+        <v>424.7223970129737</v>
       </c>
       <c r="X16" t="n">
-        <v>96.53651143791052</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.53651143791052</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1386.161193962289</v>
+        <v>1012.695435701209</v>
       </c>
       <c r="C17" t="n">
-        <v>1017.198677021877</v>
+        <v>1012.695435701209</v>
       </c>
       <c r="D17" t="n">
-        <v>1017.198677021877</v>
+        <v>1012.695435701209</v>
       </c>
       <c r="E17" t="n">
-        <v>1017.198677021877</v>
+        <v>626.9071831029644</v>
       </c>
       <c r="F17" t="n">
-        <v>958.5909773069948</v>
+        <v>626.9071831029644</v>
       </c>
       <c r="G17" t="n">
-        <v>540.4033113775685</v>
+        <v>208.7195171735381</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697319</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K17" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5557,10 +5557,10 @@
         <v>1386.161193962289</v>
       </c>
       <c r="X17" t="n">
-        <v>1386.161193962289</v>
+        <v>1012.695435701209</v>
       </c>
       <c r="Y17" t="n">
-        <v>1386.161193962289</v>
+        <v>1012.695435701209</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D18" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E18" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F18" t="n">
-        <v>221.5857653620316</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620316</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017799</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,10 +5597,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225003</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478935</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
         <v>1158.640861843456</v>
@@ -5618,28 +5618,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.9265546193633</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>514.9265546193633</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F19" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801509</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>514.9265546193633</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V19" t="n">
-        <v>514.9265546193633</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>514.9265546193633</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X19" t="n">
-        <v>514.9265546193633</v>
+        <v>123.2314487457803</v>
       </c>
       <c r="Y19" t="n">
-        <v>514.9265546193633</v>
+        <v>123.2314487457803</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1187.033872869333</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="C20" t="n">
-        <v>818.0713559289213</v>
+        <v>1602.041258353565</v>
       </c>
       <c r="D20" t="n">
-        <v>459.8056573221708</v>
+        <v>1243.775559746815</v>
       </c>
       <c r="E20" t="n">
-        <v>459.8056573221708</v>
+        <v>857.9873071485704</v>
       </c>
       <c r="F20" t="n">
-        <v>48.81975253256327</v>
+        <v>447.0014023589628</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>447.0014023589628</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81975253256327</v>
+        <v>117.5140984179228</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5788,16 +5788,16 @@
         <v>1971.003775293977</v>
       </c>
       <c r="V20" t="n">
-        <v>1639.940887950406</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W20" t="n">
-        <v>1287.172232680292</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="X20" t="n">
-        <v>1187.033872869333</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="Y20" t="n">
-        <v>1187.033872869333</v>
+        <v>1971.003775293977</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.3366797756757</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C21" t="n">
-        <v>782.8836504945488</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D21" t="n">
-        <v>633.9492408332975</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>474.711785827842</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>328.177227854727</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>190.1473403038886</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,49 +5834,49 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658747</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.002248079783</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O21" t="n">
-        <v>2158.207869599012</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S21" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T21" t="n">
-        <v>2023.578676424718</v>
+        <v>2224.002748345386</v>
       </c>
       <c r="U21" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V21" t="n">
-        <v>1795.401172494432</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W21" t="n">
-        <v>1541.163815766231</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X21" t="n">
-        <v>1333.312315560698</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y21" t="n">
-        <v>1125.552016795744</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="22">
@@ -5937,22 +5937,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>640.638169680758</v>
+        <v>559.0295017130541</v>
       </c>
       <c r="T22" t="n">
-        <v>640.638169680758</v>
+        <v>559.0295017130541</v>
       </c>
       <c r="U22" t="n">
-        <v>531.4937916364674</v>
+        <v>559.0295017130541</v>
       </c>
       <c r="V22" t="n">
-        <v>276.8093034305806</v>
+        <v>559.0295017130541</v>
       </c>
       <c r="W22" t="n">
-        <v>276.8093034305806</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256327</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y22" t="n">
         <v>48.81975253256327</v>
@@ -5968,34 +5968,34 @@
         <v>1290.78269632715</v>
       </c>
       <c r="C23" t="n">
-        <v>1290.78269632715</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D23" t="n">
-        <v>1290.78269632715</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E23" t="n">
-        <v>904.9944437289059</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>494.0085389392984</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
-        <v>75.82087300987212</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>75.82087300987212</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K23" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960993</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298431</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>115.3929631792721</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6068,16 +6068,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
         <v>1557.865593173221</v>
@@ -6095,25 +6095,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S24" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T24" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U24" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V24" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.2314487457803</v>
+        <v>512.5589765407736</v>
       </c>
       <c r="C25" t="n">
-        <v>123.2314487457803</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="D25" t="n">
-        <v>123.2314487457803</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E25" t="n">
-        <v>123.2314487457803</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O25" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>640.6381696807582</v>
+        <v>512.5589765407736</v>
       </c>
       <c r="V25" t="n">
-        <v>640.6381696807582</v>
+        <v>512.5589765407736</v>
       </c>
       <c r="W25" t="n">
-        <v>351.2209996437976</v>
+        <v>512.5589765407736</v>
       </c>
       <c r="X25" t="n">
-        <v>123.2314487457803</v>
+        <v>512.5589765407736</v>
       </c>
       <c r="Y25" t="n">
-        <v>123.2314487457803</v>
+        <v>512.5589765407736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>776.0479680797255</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="C26" t="n">
-        <v>407.0854511393138</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="D26" t="n">
-        <v>48.81975253256327</v>
+        <v>1182.282975001274</v>
       </c>
       <c r="E26" t="n">
-        <v>48.81975253256327</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256327</v>
@@ -6226,13 +6226,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U26" t="n">
-        <v>1717.224081305859</v>
+        <v>1903.485194320656</v>
       </c>
       <c r="V26" t="n">
-        <v>1552.787140119659</v>
+        <v>1572.422306977086</v>
       </c>
       <c r="W26" t="n">
-        <v>1552.787140119659</v>
+        <v>1572.422306977086</v>
       </c>
       <c r="X26" t="n">
-        <v>1552.787140119659</v>
+        <v>1572.422306977086</v>
       </c>
       <c r="Y26" t="n">
-        <v>1162.647808143847</v>
+        <v>1182.282975001274</v>
       </c>
     </row>
     <row r="27">
@@ -6414,13 +6414,13 @@
         <v>640.638169680758</v>
       </c>
       <c r="T28" t="n">
-        <v>592.6833282610578</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U28" t="n">
-        <v>303.5042407384502</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>123.7218492813288</v>
       </c>
       <c r="W28" t="n">
         <v>48.81975253256327</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1516.800991449674</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C29" t="n">
-        <v>1398.355276762313</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D29" t="n">
-        <v>1040.089578155562</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E29" t="n">
-        <v>1040.089578155562</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>629.1036733659547</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
@@ -6466,10 +6466,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L29" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M29" t="n">
         <v>1237.436361307048</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U29" t="n">
-        <v>2259.7089786956</v>
+        <v>1985.795382635101</v>
       </c>
       <c r="V29" t="n">
-        <v>2259.7089786956</v>
+        <v>1654.732495291531</v>
       </c>
       <c r="W29" t="n">
-        <v>1906.940323425486</v>
+        <v>1654.732495291531</v>
       </c>
       <c r="X29" t="n">
-        <v>1906.940323425486</v>
+        <v>1654.732495291531</v>
       </c>
       <c r="Y29" t="n">
-        <v>1516.800991449674</v>
+        <v>1264.593163315719</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H30" t="n">
         <v>48.81975253256327</v>
@@ -6542,25 +6542,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>2158.207869599012</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.2209996437974</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="C31" t="n">
-        <v>351.2209996437974</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="D31" t="n">
-        <v>351.2209996437974</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="E31" t="n">
-        <v>351.2209996437974</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F31" t="n">
-        <v>217.9199677091171</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H31" t="n">
         <v>48.81975253256327</v>
@@ -6648,25 +6648,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="U31" t="n">
-        <v>640.638169680758</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="V31" t="n">
-        <v>640.638169680758</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="W31" t="n">
-        <v>351.2209996437974</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="X31" t="n">
-        <v>351.2209996437974</v>
+        <v>355.3739985620517</v>
       </c>
       <c r="Y31" t="n">
-        <v>351.2209996437974</v>
+        <v>355.3739985620517</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1482.969806655667</v>
+        <v>1328.153373032848</v>
       </c>
       <c r="C32" t="n">
-        <v>1114.007289715255</v>
+        <v>959.190856092436</v>
       </c>
       <c r="D32" t="n">
-        <v>1114.007289715255</v>
+        <v>600.9251574856855</v>
       </c>
       <c r="E32" t="n">
-        <v>877.9933232515971</v>
+        <v>600.9251574856855</v>
       </c>
       <c r="F32" t="n">
-        <v>467.0074184619895</v>
+        <v>189.939252696078</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>189.939252696078</v>
       </c>
       <c r="H32" t="n">
         <v>48.81975253256327</v>
@@ -6727,25 +6727,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V32" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W32" t="n">
-        <v>2259.7089786956</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X32" t="n">
-        <v>2259.7089786956</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y32" t="n">
-        <v>1869.569646719789</v>
+        <v>1714.753213096969</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F33" t="n">
-        <v>239.5596775960993</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G33" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6782,49 +6782,49 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225003</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478935</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S33" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>207.4609049796586</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C34" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D34" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E34" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F34" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G34" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H34" t="n">
         <v>48.81975253256327</v>
@@ -6891,19 +6891,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U34" t="n">
-        <v>351.4590821581503</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V34" t="n">
-        <v>207.4609049796586</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W34" t="n">
-        <v>207.4609049796586</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="X34" t="n">
-        <v>207.4609049796586</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="Y34" t="n">
-        <v>207.4609049796586</v>
+        <v>351.2209996437974</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1991.009791397003</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="C35" t="n">
-        <v>1622.047274456592</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.781575849841</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9933232515971</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T35" t="n">
-        <v>2221.37302195985</v>
+        <v>2086.428022038417</v>
       </c>
       <c r="U35" t="n">
-        <v>2221.37302195985</v>
+        <v>2086.428022038417</v>
       </c>
       <c r="V35" t="n">
-        <v>2221.37302195985</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="W35" t="n">
-        <v>2221.37302195985</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="X35" t="n">
-        <v>2221.37302195985</v>
+        <v>1755.365134694847</v>
       </c>
       <c r="Y35" t="n">
-        <v>2221.37302195985</v>
+        <v>1755.365134694847</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>744.1456658227286</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C36" t="n">
-        <v>569.6926365416016</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D36" t="n">
-        <v>420.7582268803504</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E36" t="n">
-        <v>261.5207718748949</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F36" t="n">
-        <v>114.9862139017798</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G36" t="n">
-        <v>114.9862139017798</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H36" t="n">
         <v>114.9862139017798</v>
@@ -7028,7 +7028,7 @@
         <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
         <v>1970.07121469245</v>
@@ -7046,22 +7046,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T36" t="n">
-        <v>2045.539770703513</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1817.362266773227</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V36" t="n">
-        <v>1582.210158541485</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W36" t="n">
-        <v>1327.972801813283</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1120.12130160775</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.3610028427966</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>195.7097000304736</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="C37" t="n">
-        <v>195.7097000304736</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D37" t="n">
-        <v>195.7097000304736</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E37" t="n">
-        <v>195.7097000304736</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256327</v>
@@ -7128,19 +7128,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U37" t="n">
-        <v>377.3581648607134</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V37" t="n">
-        <v>377.3581648607134</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W37" t="n">
-        <v>377.3581648607134</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X37" t="n">
-        <v>377.3581648607134</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y37" t="n">
-        <v>377.3581648607134</v>
+        <v>351.4590821581503</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1409.052095095974</v>
+        <v>1160.099513934239</v>
       </c>
       <c r="C38" t="n">
-        <v>1040.089578155562</v>
+        <v>1160.099513934239</v>
       </c>
       <c r="D38" t="n">
-        <v>1040.089578155562</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="E38" t="n">
-        <v>1040.089578155562</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F38" t="n">
-        <v>629.1036733659547</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G38" t="n">
         <v>210.9160074365284</v>
@@ -7174,19 +7174,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O38" t="n">
         <v>2037.925350935285</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T38" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U38" t="n">
-        <v>2187.207932640046</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="V38" t="n">
-        <v>1856.145045296475</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="W38" t="n">
-        <v>1856.145045296475</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="X38" t="n">
-        <v>1856.145045296475</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="Y38" t="n">
-        <v>1466.005713320664</v>
+        <v>1546.699353998361</v>
       </c>
     </row>
     <row r="39">
@@ -7235,19 +7235,19 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>398.7971326015548</v>
+        <v>518.8531079183253</v>
       </c>
       <c r="E39" t="n">
-        <v>239.5596775960993</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F39" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
@@ -7259,10 +7259,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>540.2677802593126</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M39" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
         <v>1557.865593173221</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E40" t="n">
         <v>48.81975253256327</v>
@@ -7356,28 +7356,28 @@
         <v>640.638169680758</v>
       </c>
       <c r="R40" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="S40" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="T40" t="n">
-        <v>640.638169680758</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="U40" t="n">
-        <v>351.4590821581503</v>
+        <v>198.7974038739014</v>
       </c>
       <c r="V40" t="n">
-        <v>338.2369225695239</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="W40" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="X40" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1572.822125467577</v>
+        <v>1482.969806655666</v>
       </c>
       <c r="C41" t="n">
-        <v>1203.859608527166</v>
+        <v>1114.007289715255</v>
       </c>
       <c r="D41" t="n">
-        <v>845.5939099204151</v>
+        <v>755.7415911085043</v>
       </c>
       <c r="E41" t="n">
-        <v>459.8056573221708</v>
+        <v>369.95333851026</v>
       </c>
       <c r="F41" t="n">
-        <v>48.81975253256327</v>
+        <v>369.95333851026</v>
       </c>
       <c r="G41" t="n">
         <v>48.81975253256327</v>
@@ -7411,16 +7411,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977595</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540051</v>
       </c>
       <c r="M41" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N41" t="n">
         <v>1672.394424063531</v>
@@ -7429,7 +7429,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T41" t="n">
-        <v>2315.730112713503</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U41" t="n">
-        <v>2315.730112713503</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V41" t="n">
-        <v>2315.730112713503</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W41" t="n">
-        <v>1962.961457443389</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="X41" t="n">
-        <v>1962.961457443389</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1572.822125467577</v>
+        <v>1869.569646719788</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C42" t="n">
-        <v>547.7315422628061</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D42" t="n">
-        <v>398.7971326015548</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E42" t="n">
-        <v>239.5596775960993</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F42" t="n">
-        <v>93.02511962298431</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G42" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
         <v>48.81975253256327</v>
@@ -7496,10 +7496,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7523,19 +7523,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1857.795356864263</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>196.7328461149564</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="C43" t="n">
-        <v>196.7328461149564</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="D43" t="n">
-        <v>196.7328461149564</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>204.5691346602399</v>
       </c>
       <c r="G43" t="n">
         <v>48.81975253256327</v>
@@ -7578,43 +7578,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O43" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U43" t="n">
-        <v>351.4590821581505</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V43" t="n">
-        <v>351.4590821581505</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W43" t="n">
-        <v>196.7328461149564</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X43" t="n">
-        <v>196.7328461149564</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y43" t="n">
-        <v>196.7328461149564</v>
+        <v>351.4590821581503</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1263.781575849841</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="C44" t="n">
-        <v>1263.781575849841</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D44" t="n">
-        <v>1263.781575849841</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E44" t="n">
         <v>877.9933232515971</v>
@@ -7681,19 +7681,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V44" t="n">
-        <v>2413.986506150855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W44" t="n">
-        <v>2413.986506150855</v>
+        <v>2397.160770493022</v>
       </c>
       <c r="X44" t="n">
-        <v>2040.520747889775</v>
+        <v>2023.695012231942</v>
       </c>
       <c r="Y44" t="n">
-        <v>1650.381415913963</v>
+        <v>1633.55568025613</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E45" t="n">
-        <v>239.5596775960993</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F45" t="n">
-        <v>93.02511962298431</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>115.3929631792721</v>
       </c>
       <c r="H45" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O45" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7754,25 +7754,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C46" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D46" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E46" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F46" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
         <v>48.81975253256327</v>
@@ -7839,19 +7839,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>351.4590821581505</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="V46" t="n">
-        <v>195.7097000304736</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="W46" t="n">
-        <v>195.7097000304736</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="X46" t="n">
-        <v>195.7097000304736</v>
+        <v>438.7125468526473</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.7097000304736</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>128.4257434817937</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>287.1006199003857</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194305</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617109</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730269</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>128.4257434817937</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.3053491854098</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>128.4257434817937</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>61.27660229194304</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029008</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,10 +10676,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O36" t="n">
-        <v>203.8252941185861</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>180.8033201453156</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>180.8033201453154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>289.30534918541</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>292.0128998752788</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>82.10090959081722</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>158.3910720113373</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>133.344024653829</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23469,13 +23469,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4598605480533</v>
+        <v>178.2202692317595</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>15.78190885340109</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>156.709608071478</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23582,7 +23582,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>70.2016422976032</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23591,10 +23591,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.1943713302754</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23712,13 +23712,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>38.38102838272158</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>348.8544230239782</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>167.8916639070645</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23822,10 +23822,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>127.2750392816568</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>48.05747717687808</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>106.1644009308525</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23913,7 +23913,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23946,16 +23946,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>161.832797736601</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>92.46788992841957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>270.5941244656195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>31.12404080756151</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>141.3464342174083</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>133.0854161885252</v>
       </c>
       <c r="T22" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>178.234362383534</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>338.5417824984718</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24226,7 +24226,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>133.7441830823898</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>39.6260774054074</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>71.75346877184643</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24420,16 +24420,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>159.4888954387971</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>115.9988091386726</v>
       </c>
       <c r="V26" t="n">
-        <v>164.9596866957966</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24654,16 +24654,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9845675425501</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>212.3699225553132</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>248.0116342305199</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24700,7 +24700,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>18.02003411673493</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>13.45302640759783</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24888,10 +24888,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>156.9263286170862</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>148.2765432732403</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>326.1924309016296</v>
+        <v>186.48412573975</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24967,7 +24967,7 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
         <v>217.4184586216305</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25007,13 +25007,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>53.35061880807845</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>47.70156664044342</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25131,13 +25131,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5794479171212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>154.6742434062624</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>45.87031153101955</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25241,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>118.8554155636029</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>21.74148333600732</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>18.17421849093915</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
@@ -25332,7 +25332,7 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25368,7 +25368,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>25.64009187553745</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>326.3497596210377</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>203.7977860019223</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.4184586216305</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25475,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>118.8554155636028</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,7 +25596,7 @@
         <v>37.44704598407326</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>213.8779974765521</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>239.0477053310879</v>
+        <v>250.0937311424724</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>96.08353915221215</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>93.41351984611688</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>61.77024252613214</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>13.21732471838845</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>133.3440246538288</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>224.5107877757007</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>305.8523811436229</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>105.1308741609318</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>157.0547409226243</v>
@@ -26079,10 +26079,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>86.38093004755177</v>
       </c>
       <c r="V46" t="n">
-        <v>97.9457550174279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>626871.5072233096</v>
+        <v>626871.5072233097</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>626871.5072233096</v>
+        <v>626871.5072233097</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>626871.5072233097</v>
+        <v>626871.5072233096</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>626871.5072233097</v>
+        <v>626871.5072233096</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>626871.5072233095</v>
+        <v>626871.5072233096</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>626871.5072233096</v>
+        <v>626871.5072233097</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>626871.5072233095</v>
+        <v>626871.5072233097</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
+        <v>366042.2311676205</v>
+      </c>
+      <c r="F2" t="n">
         <v>366042.2311676204</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>366042.2311676205</v>
       </c>
-      <c r="G2" t="n">
-        <v>366042.2311676203</v>
-      </c>
       <c r="H2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="I2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="J2" t="n">
         <v>366042.2311676205</v>
       </c>
       <c r="K2" t="n">
-        <v>366042.2311676204</v>
+        <v>366042.2311676203</v>
       </c>
       <c r="L2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676203</v>
       </c>
       <c r="M2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676202</v>
       </c>
       <c r="N2" t="n">
         <v>366042.2311676205</v>
@@ -26355,7 +26355,7 @@
         <v>366042.2311676204</v>
       </c>
       <c r="P2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
     </row>
     <row r="3">
@@ -26423,13 +26423,13 @@
         <v>320962.9529903556</v>
       </c>
       <c r="D4" t="n">
-        <v>320962.9529903556</v>
+        <v>320962.9529903555</v>
       </c>
       <c r="E4" t="n">
         <v>44379.07056643641</v>
       </c>
       <c r="F4" t="n">
-        <v>44379.07056643642</v>
+        <v>44379.07056643641</v>
       </c>
       <c r="G4" t="n">
         <v>44379.07056643641</v>
@@ -26450,7 +26450,7 @@
         <v>44379.07056643641</v>
       </c>
       <c r="M4" t="n">
-        <v>44379.07056643642</v>
+        <v>44379.07056643641</v>
       </c>
       <c r="N4" t="n">
         <v>44379.07056643642</v>
@@ -26459,7 +26459,7 @@
         <v>44379.07056643641</v>
       </c>
       <c r="P4" t="n">
-        <v>44379.07056643641</v>
+        <v>44379.07056643642</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104189.5413727263</v>
+        <v>104189.5413727264</v>
       </c>
       <c r="C6" t="n">
-        <v>184958.9729042741</v>
+        <v>184958.9729042739</v>
       </c>
       <c r="D6" t="n">
-        <v>184958.9729042742</v>
+        <v>184958.972904274</v>
       </c>
       <c r="E6" t="n">
-        <v>-98877.10112566676</v>
+        <v>-92605.06900930764</v>
       </c>
       <c r="F6" t="n">
-        <v>270558.1980071134</v>
+        <v>276830.2301234724</v>
       </c>
       <c r="G6" t="n">
-        <v>270558.1980071133</v>
+        <v>276830.2301234725</v>
       </c>
       <c r="H6" t="n">
-        <v>270558.1980071134</v>
+        <v>276830.2301234724</v>
       </c>
       <c r="I6" t="n">
-        <v>270558.1980071134</v>
+        <v>276830.2301234724</v>
       </c>
       <c r="J6" t="n">
-        <v>207498.2554080071</v>
+        <v>213770.2875243661</v>
       </c>
       <c r="K6" t="n">
-        <v>270558.1980071134</v>
+        <v>276830.2301234723</v>
       </c>
       <c r="L6" t="n">
-        <v>270558.1980071134</v>
+        <v>276830.2301234723</v>
       </c>
       <c r="M6" t="n">
-        <v>178543.9527260203</v>
+        <v>184815.9848423791</v>
       </c>
       <c r="N6" t="n">
-        <v>270558.1980071135</v>
+        <v>276830.2301234724</v>
       </c>
       <c r="O6" t="n">
-        <v>270558.1980071134</v>
+        <v>276830.2301234724</v>
       </c>
       <c r="P6" t="n">
-        <v>270558.1980071134</v>
+        <v>276830.2301234724</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="H3" t="n">
         <v>322.6158759445108</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>204.5765286314975</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>97.05302605402983</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>38.02299200392821</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>381.7025041237114</v>
@@ -27672,10 +27672,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>108.226679839754</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1.774298740197167</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>16.8472055368814</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>123.387056250247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>203.1901569204907</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>381.7025041237114</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>117.0649405732773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27988,19 +27988,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>66.96450839845252</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L17" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P17" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q17" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,19 +32335,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858958</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223817</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501259</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K24" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R24" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L25" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P25" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H41" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
@@ -34143,7 +34143,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O41" t="n">
         <v>218.5211886152591</v>
@@ -34155,13 +34155,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S41" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K42" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,10 +34231,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R42" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
@@ -34243,7 +34243,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,40 +34280,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L43" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
@@ -34322,7 +34322,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35026,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>240.0046611659691</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009465</v>
@@ -35506,10 +35506,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>126.9612417926721</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35737,16 +35737,16 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>316.9982669508155</v>
+        <v>285.636118211264</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L17" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O17" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P17" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q17" t="n">
         <v>130.0651205780292</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O19" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>64.8144330484658</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009465</v>
+        <v>207.3158823613949</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
@@ -36217,10 +36217,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>126.9612417926721</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250345</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009465</v>
@@ -36928,10 +36928,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926721</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O36" t="n">
-        <v>226.3322895077443</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
         <v>316.9982669508155</v>
@@ -37627,13 +37627,13 @@
         <v>238.6780311009465</v>
       </c>
       <c r="L39" t="n">
-        <v>192.9196850695264</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
         <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37800,7 +37800,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L42" t="n">
-        <v>192.9196850695263</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250347</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N43" t="n">
         <v>133.158287785359</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
